--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1345.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1345.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.129211046423869</v>
+        <v>1.183027744293213</v>
       </c>
       <c r="B1">
-        <v>2.609961457203987</v>
+        <v>2.550841093063354</v>
       </c>
       <c r="C1">
-        <v>4.359336528157614</v>
+        <v>9.410435676574707</v>
       </c>
       <c r="D1">
-        <v>2.505056696409151</v>
+        <v>2.09122633934021</v>
       </c>
       <c r="E1">
-        <v>1.181762010200749</v>
+        <v>1.219111084938049</v>
       </c>
     </row>
   </sheetData>
